--- a/rrd/AppData/AppData.xlsx
+++ b/rrd/AppData/AppData.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Devworkspace\rrd\AppData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D6D3F7-AFC2-4C7D-90F8-71D9BB72E18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{48A93BBF-24C3-4459-A9D0-8AFD729C36F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20670" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +23,7 @@
     <sheet name="RRDCaseOnline" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -267,12 +263,6 @@
     <t>usertesting@test.com</t>
   </si>
   <si>
-    <t>Nandini20@</t>
-  </si>
-  <si>
-    <t>dummyacc@test.com</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -289,6 +279,12 @@
   </si>
   <si>
     <t>Test User</t>
+  </si>
+  <si>
+    <t>rrd_teamtest@mirketa.com</t>
+  </si>
+  <si>
+    <t>Mirketa90#</t>
   </si>
 </sst>
 </file>
@@ -695,17 +691,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,20 +709,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -747,15 +743,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -769,12 +765,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -796,15 +792,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -818,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -829,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -845,18 +841,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -879,9 +875,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -899,10 +895,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -922,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -938,22 +934,22 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" customWidth="1"/>
-    <col min="13" max="13" width="23.77734375" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1050,16 +1046,16 @@
         <v>56</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1103,16 +1099,16 @@
         <v>56</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>68</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>66</v>
@@ -1179,19 +1175,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14680F66-8A8C-4082-A333-9F1DFBECF99A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1205,7 +1201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1232,22 +1228,22 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1265,15 +1261,15 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1287,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>48.6</v>
       </c>
@@ -1329,14 +1325,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1347,7 +1343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1358,7 +1354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1376,17 +1372,17 @@
       <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1406,7 +1402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>62</v>
       </c>
@@ -1460,26 +1456,26 @@
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" customWidth="1"/>
-    <col min="13" max="13" width="24.44140625" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" customWidth="1"/>
-    <col min="17" max="17" width="23.77734375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1533,7 +1529,7 @@
       </c>
       <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1588,7 +1584,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1642,7 +1638,7 @@
       </c>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1714,15 +1710,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1736,9 +1732,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -1760,22 +1756,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
     </row>
   </sheetData>
